--- a/biology/Mycologie/Strobilomyces_seminudus/Strobilomyces_seminudus.xlsx
+++ b/biology/Mycologie/Strobilomyces_seminudus/Strobilomyces_seminudus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet pomme de pin à moitié nu
-Strobilomyces seminudus est une espèce exotique de champignons basidiomycètes de la famille des Boletacées, du genre du « Bolet pomme de pin », en langue française vernaculaire, devenue un nom d'espèce collective, notamment en outremer. Il a été décrit comme endémique depuis Ōtsu (Japon) par le mycologue japonais Tsuguo Hongō en 1983[1].
+Strobilomyces seminudus est une espèce exotique de champignons basidiomycètes de la famille des Boletacées, du genre du « Bolet pomme de pin », en langue française vernaculaire, devenue un nom d'espèce collective, notamment en outremer. Il a été décrit comme endémique depuis Ōtsu (Japon) par le mycologue japonais Tsuguo Hongō en 1983.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Basionyme, synonymes, nom japonais.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Strobilomyces seminudus Hongo (1983), Transactions of the Mycological Society of Japan, 23 (3), p. 197.
-Son nom scientifique japonais est コオニイグチ [ 小鬼猪口, Ko-Oni-Iguchi[2]], qui signifie « petit bolet hirsute ».
-Le nom latin seminudus, « à moitié nu », fait allusion aux larges éclaircies dans le tomentum, laissant voir la chair blanchâtre dans les intervalles, parfois presque glabre[1].
+Son nom scientifique japonais est コオニイグチ [ 小鬼猪口, Ko-Oni-Iguchi], qui signifie « petit bolet hirsute ».
+Le nom latin seminudus, « à moitié nu », fait allusion aux larges éclaircies dans le tomentum, laissant voir la chair blanchâtre dans les intervalles, parfois presque glabre.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chapeau 3–10 cm, convexe puis plan ; revêtement piléique sec, tomenteux à tomento-squamuleux, couvert d'écailles apprimées inégales, grisâtre à noirâtre; squames 2–10 mm de large, contrastant avec la chair blanchâtre visible dans les lacunes, parfois presque glabre; marge appendiculée par des restes de voile membraneux, peu visibles car concolores.
 Chair jusqu'à 1 cm d'épaisseur au centre du chapeau, et 7 mm à mi-rayon, blanchâtre, rougissant puis noircissant au froissement, comme toutes les parties du champignon. Saveur douce, odeur imperceptible.
@@ -580,9 +596,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solitaires ou disséminés sur le sol des forêts mixtes, dites Shii-Kashi [Castanopsis cuspidata et chênes verts (Quercus serrata, Q. glauca, etc.)]. Japon (ouest de Honshū et Kyūshū) [3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solitaires ou disséminés sur le sol des forêts mixtes, dites Shii-Kashi [Castanopsis cuspidata et chênes verts (Quercus serrata, Q. glauca, etc.)]. Japon (ouest de Honshū et Kyūshū) .
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Non documentée, mais peu engageante à priori.
 </t>
@@ -642,9 +662,11 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cette espèce se distingue des autres Strobilomyces par un stipe muni d'une zone annulaire, distinctement épaissi près du sommet et ocellé d'écailles apprimées-tomenteuses près de la base. Les squames disséminées apprimées sur le chapeau diffèrent nettement de celle de S. confusus, qui est recouvert d'écailles rigides et épineuses (Singer 1948)[3].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette espèce se distingue des autres Strobilomyces par un stipe muni d'une zone annulaire, distinctement épaissi près du sommet et ocellé d'écailles apprimées-tomenteuses près de la base. Les squames disséminées apprimées sur le chapeau diffèrent nettement de celle de S. confusus, qui est recouvert d'écailles rigides et épineuses (Singer 1948).</t>
         </is>
       </c>
     </row>
@@ -672,11 +694,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Références bibliographiques et iconographiques:  Imazeki et Hongo vol. 1 no. 501[2]
-Rokuya Imazeki II. Noms japonais recouvrant des groupes d'espèces[4]
-Strobilomyces seminudus Fiche MycoDB[5]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Références bibliographiques et iconographiques:  Imazeki et Hongo vol. 1 no. 501
+Rokuya Imazeki II. Noms japonais recouvrant des groupes d'espèces
+Strobilomyces seminudus Fiche MycoDB</t>
         </is>
       </c>
     </row>
